--- a/doc/Results/Resnet18_CIFAR10_PS2.xlsx
+++ b/doc/Results/Resnet18_CIFAR10_PS2.xlsx
@@ -2722,8 +2722,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="345829864"/>
-        <c:axId val="345823200"/>
+        <c:axId val="135428096"/>
+        <c:axId val="135428880"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -2827,7 +2827,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="345829864"/>
+        <c:axId val="135428096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2941,12 +2941,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345823200"/>
+        <c:crossAx val="135428880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="345823200"/>
+        <c:axId val="135428880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.28500000000000003"/>
@@ -3061,7 +3061,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345829864"/>
+        <c:crossAx val="135428096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7832,11 +7832,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165652600"/>
-        <c:axId val="165650640"/>
+        <c:axId val="135430056"/>
+        <c:axId val="135431232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165652600"/>
+        <c:axId val="135430056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="95"/>
@@ -7951,12 +7951,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165650640"/>
+        <c:crossAx val="135431232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165650640"/>
+        <c:axId val="135431232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.45"/>
@@ -8075,7 +8075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165652600"/>
+        <c:crossAx val="135430056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>

--- a/doc/Results/Resnet18_CIFAR10_PS2.xlsx
+++ b/doc/Results/Resnet18_CIFAR10_PS2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inna\OneDrive - Technion\Technion\Sem. 9\Proj2\doc\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idoim\Desktop\Course\Project 2\doc\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Summery" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2127,7 +2127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2177,7 +2177,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2197,13 +2197,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -2211,11 +2217,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Resnet18,</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> CIFAR10, Patch Size = 2</a:t>
+              <a:t>Resnet18, CIFAR10, Patch Size = 2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2241,13 +2243,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -2288,27 +2296,63 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -2360,6 +2404,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DA5-42C7-9821-31EFEB2F667A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2376,27 +2425,63 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -2448,6 +2533,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5DA5-42C7-9821-31EFEB2F667A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2464,27 +2554,63 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -2536,6 +2662,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5DA5-42C7-9821-31EFEB2F667A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2552,27 +2683,63 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -2624,6 +2791,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5DA5-42C7-9821-31EFEB2F667A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2640,14 +2812,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2660,11 +2837,12 @@
             <c:val val="100"/>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:prstDash val="dash"/>
                 <a:round/>
               </a:ln>
               <a:effectLst/>
@@ -2678,11 +2856,12 @@
             <c:val val="100"/>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:prstDash val="dash"/>
                 <a:round/>
               </a:ln>
               <a:effectLst/>
@@ -2713,6 +2892,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5DA5-42C7-9821-31EFEB2F667A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2748,14 +2932,19 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="9525" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="accent5"/>
                     </a:solidFill>
-                    <a:prstDash val="dash"/>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst/>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
@@ -2821,6 +3010,11 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-5DA5-42C7-9821-31EFEB2F667A}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredScatterSeries>
           </c:ext>
@@ -2838,9 +3032,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2855,11 +3049,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2888,11 +3081,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2912,12 +3104,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2928,9 +3118,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2958,9 +3147,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2975,11 +3164,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3008,11 +3196,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3032,12 +3219,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3048,9 +3233,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3074,17 +3258,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.7650752050827595"/>
-          <c:y val="0.28174613589967923"/>
-          <c:w val="0.2349247949172405"/>
-          <c:h val="0.39062773403324585"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3100,9 +3275,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3119,17 +3293,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -3152,7 +3337,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3172,11 +3357,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3185,9 +3369,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>Layer Quantizer Optimization</a:t>
             </a:r>
           </a:p>
@@ -3196,14 +3378,9 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>Resnet18, CIFAR10, Patch Size = 2</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3221,11 +3398,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3239,7 +3415,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3438777375620313E-2"/>
+          <c:y val="0.14915818449523077"/>
+          <c:w val="0.8754801369499623"/>
+          <c:h val="0.76725043515901981"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -3258,13 +3444,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -4416,6 +4608,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A512-4419-BE39-A2F5AE587409}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4432,13 +4629,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -5488,6 +5691,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A512-4419-BE39-A2F5AE587409}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5504,13 +5712,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -6662,6 +6876,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A512-4419-BE39-A2F5AE587409}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -6678,13 +6897,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -7734,6 +7959,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A512-4419-BE39-A2F5AE587409}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -7750,14 +7980,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -7770,11 +8005,10 @@
             <c:val val="100"/>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
-                <a:prstDash val="dash"/>
                 <a:round/>
               </a:ln>
               <a:effectLst/>
@@ -7788,11 +8022,10 @@
             <c:val val="100"/>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
-                <a:prstDash val="dash"/>
                 <a:round/>
               </a:ln>
               <a:effectLst/>
@@ -7823,6 +8056,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A512-4419-BE39-A2F5AE587409}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7848,9 +8086,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -7865,11 +8104,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -7898,11 +8136,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -7922,9 +8159,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -7938,9 +8174,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -7967,9 +8202,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -7984,11 +8220,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -7998,13 +8233,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Operations</a:t>
+                  <a:t>Operations Saved</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Saved</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -8022,11 +8252,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -8046,9 +8275,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -8062,9 +8290,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -8088,7 +8315,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -8105,9 +8332,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -8125,11 +8351,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -8237,62 +8466,66 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -8301,9 +8534,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8322,14 +8554,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -8338,20 +8562,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -8360,13 +8584,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8378,9 +8602,89 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -8388,12 +8692,483 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -8417,21 +9192,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8441,20 +9213,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8466,14 +9237,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8485,14 +9255,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8504,14 +9273,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -8523,9 +9286,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8542,9 +9306,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8556,14 +9321,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="lt1">
             <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8575,14 +9339,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8594,27 +9357,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -8622,9 +9384,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8634,14 +9395,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8653,12 +9413,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8667,14 +9426,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="25400" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -8683,9 +9443,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8695,17 +9454,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8717,553 +9477,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -9304,16 +9541,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>182881</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9755,19 +9992,19 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9775,7 +10012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9786,7 +10023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9794,7 +10031,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -9805,7 +10042,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -9813,7 +10050,7 @@
         <v>0.23504</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -9822,7 +10059,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -9839,7 +10076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -9859,7 +10096,7 @@
         <v>8.8181999999999996E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.5</v>
       </c>
@@ -9876,7 +10113,7 @@
         <v>0.140211</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -9895,7 +10132,7 @@
         <v>0.17497499999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3.5</v>
       </c>
@@ -9912,7 +10149,7 @@
         <v>0.23669000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -9944,9 +10181,9 @@
       <selection sqref="A1:E189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -9963,7 +10200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -9980,7 +10217,7 @@
         <v>0.44156720700000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9997,7 +10234,7 @@
         <v>0.44159195299999998</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -10014,7 +10251,7 @@
         <v>0.44140412499999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -10031,7 +10268,7 @@
         <v>0.44150873200000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -10048,7 +10285,7 @@
         <v>0.44136788599999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -10065,7 +10302,7 @@
         <v>0.44090983500000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -10082,7 +10319,7 @@
         <v>0.44062505400000002</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -10099,7 +10336,7 @@
         <v>0.44062485499999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -10116,7 +10353,7 @@
         <v>0.44090490900000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -10133,7 +10370,7 @@
         <v>0.44058635899999998</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -10150,7 +10387,7 @@
         <v>0.43953353000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -10167,7 +10404,7 @@
         <v>0.43937970300000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -10184,7 +10421,7 @@
         <v>0.43867984900000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -10201,7 +10438,7 @@
         <v>0.43784119199999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -10218,7 +10455,7 @@
         <v>0.43722382100000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -10235,7 +10472,7 @@
         <v>0.43677722699999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -10252,7 +10489,7 @@
         <v>0.43631843100000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -10269,7 +10506,7 @@
         <v>0.435749634</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -10286,7 +10523,7 @@
         <v>0.43469835200000001</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -10303,7 +10540,7 @@
         <v>0.43412118900000002</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -10320,7 +10557,7 @@
         <v>0.43394940900000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -10337,7 +10574,7 @@
         <v>0.4327839</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -10354,7 +10591,7 @@
         <v>0.43257880900000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -10371,7 +10608,7 @@
         <v>0.43213288999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -10388,7 +10625,7 @@
         <v>0.431559676</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -10405,7 +10642,7 @@
         <v>0.42608542199999999</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -10422,7 +10659,7 @@
         <v>0.42586785199999999</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -10439,7 +10676,7 @@
         <v>0.42546973599999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -10456,7 +10693,7 @@
         <v>0.42348466899999998</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -10473,7 +10710,7 @@
         <v>0.42338421799999998</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -10490,7 +10727,7 @@
         <v>0.42326625299999998</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -10507,7 +10744,7 @@
         <v>0.422855429</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -10524,7 +10761,7 @@
         <v>0.41167132400000001</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -10541,7 +10778,7 @@
         <v>0.41137263400000001</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -10558,7 +10795,7 @@
         <v>0.41111473700000001</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -10575,7 +10812,7 @@
         <v>0.410713041</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -10592,7 +10829,7 @@
         <v>0.41009242899999998</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -10609,7 +10846,7 @@
         <v>0.40911579100000001</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -10626,7 +10863,7 @@
         <v>0.40881860399999997</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -10643,7 +10880,7 @@
         <v>0.408434362</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -10660,7 +10897,7 @@
         <v>0.39823021400000003</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -10677,7 +10914,7 @@
         <v>0.398103078</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -10694,7 +10931,7 @@
         <v>0.39770959500000003</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -10711,7 +10948,7 @@
         <v>0.39712356199999999</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -10728,7 +10965,7 @@
         <v>0.396917297</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -10745,7 +10982,7 @@
         <v>0.396620747</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -10762,7 +10999,7 @@
         <v>0.39627024</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -10779,7 +11016,7 @@
         <v>0.396070278</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -10796,7 +11033,7 @@
         <v>0.39583704199999997</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -10813,7 +11050,7 @@
         <v>0.39565015399999998</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -10830,7 +11067,7 @@
         <v>0.39486436699999999</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -10847,7 +11084,7 @@
         <v>0.39479193299999998</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -10864,7 +11101,7 @@
         <v>0.39474193800000001</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -10881,7 +11118,7 @@
         <v>0.39458685799999998</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -10898,7 +11135,7 @@
         <v>0.394021919</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -10915,7 +11152,7 @@
         <v>0.389232682</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>75</v>
       </c>
@@ -10932,7 +11169,7 @@
         <v>0.38957937300000001</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -10949,7 +11186,7 @@
         <v>0.38929441399999998</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -10966,7 +11203,7 @@
         <v>0.37939169499999997</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -10983,7 +11220,7 @@
         <v>0.37944441499999998</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -11000,7 +11237,7 @@
         <v>0.37911521799999998</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -11017,7 +11254,7 @@
         <v>0.37836455800000002</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -11034,7 +11271,7 @@
         <v>0.37807088700000002</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -11051,7 +11288,7 @@
         <v>0.377833525</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>83</v>
       </c>
@@ -11068,7 +11305,7 @@
         <v>0.377748627</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>84</v>
       </c>
@@ -11085,7 +11322,7 @@
         <v>0.377620069</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -11102,7 +11339,7 @@
         <v>0.37758265400000002</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>86</v>
       </c>
@@ -11119,7 +11356,7 @@
         <v>0.37626185000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -11136,7 +11373,7 @@
         <v>0.37588420900000002</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -11153,7 +11390,7 @@
         <v>0.36481876499999999</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>89</v>
       </c>
@@ -11170,7 +11407,7 @@
         <v>0.36365791600000003</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>90</v>
       </c>
@@ -11187,7 +11424,7 @@
         <v>0.363665409</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -11204,7 +11441,7 @@
         <v>0.36327016000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>92</v>
       </c>
@@ -11221,7 +11458,7 @@
         <v>0.36302414700000002</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>93</v>
       </c>
@@ -11238,7 +11475,7 @@
         <v>0.36254824299999999</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>94</v>
       </c>
@@ -11255,7 +11492,7 @@
         <v>0.35672145</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>95</v>
       </c>
@@ -11272,7 +11509,7 @@
         <v>0.35640750100000002</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>96</v>
       </c>
@@ -11289,7 +11526,7 @@
         <v>0.356150574</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>97</v>
       </c>
@@ -11306,7 +11543,7 @@
         <v>0.35600685199999998</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -11323,7 +11560,7 @@
         <v>0.35566716500000001</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>99</v>
       </c>
@@ -11340,7 +11577,7 @@
         <v>0.35548767999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -11357,7 +11594,7 @@
         <v>0.35509800800000002</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>101</v>
       </c>
@@ -11374,7 +11611,7 @@
         <v>0.33650712700000002</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>102</v>
       </c>
@@ -11391,7 +11628,7 @@
         <v>0.33640542600000001</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>103</v>
       </c>
@@ -11408,7 +11645,7 @@
         <v>0.33559536699999998</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>104</v>
       </c>
@@ -11425,7 +11662,7 @@
         <v>0.33473086000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>105</v>
       </c>
@@ -11442,7 +11679,7 @@
         <v>0.33453104700000003</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>106</v>
       </c>
@@ -11459,7 +11696,7 @@
         <v>0.33434615699999998</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -11476,7 +11713,7 @@
         <v>0.33364418099999998</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -11493,7 +11730,7 @@
         <v>0.33329766999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>109</v>
       </c>
@@ -11510,7 +11747,7 @@
         <v>0.33314743899999999</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>110</v>
       </c>
@@ -11527,7 +11764,7 @@
         <v>0.33256537800000002</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>111</v>
       </c>
@@ -11544,7 +11781,7 @@
         <v>0.33032995599999998</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -11561,7 +11798,7 @@
         <v>0.330107131</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -11578,7 +11815,7 @@
         <v>0.31510444199999998</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>114</v>
       </c>
@@ -11595,7 +11832,7 @@
         <v>0.31421699400000003</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>115</v>
       </c>
@@ -11612,7 +11849,7 @@
         <v>0.31377221</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>116</v>
       </c>
@@ -11629,7 +11866,7 @@
         <v>0.31323083000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>117</v>
       </c>
@@ -11646,7 +11883,7 @@
         <v>0.31297971699999999</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -11663,7 +11900,7 @@
         <v>0.31265224000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -11680,7 +11917,7 @@
         <v>0.31238065700000001</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>120</v>
       </c>
@@ -11697,7 +11934,7 @@
         <v>0.311929126</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>121</v>
       </c>
@@ -11714,7 +11951,7 @@
         <v>0.31051663899999998</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>122</v>
       </c>
@@ -11731,7 +11968,7 @@
         <v>0.30994626199999997</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>123</v>
       </c>
@@ -11748,7 +11985,7 @@
         <v>0.29765256600000001</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>124</v>
       </c>
@@ -11765,7 +12002,7 @@
         <v>0.296871363</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>125</v>
       </c>
@@ -11782,7 +12019,7 @@
         <v>0.29659723100000002</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>126</v>
       </c>
@@ -11799,7 +12036,7 @@
         <v>0.29632916100000001</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -11816,7 +12053,7 @@
         <v>0.296145204</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>128</v>
       </c>
@@ -11833,7 +12070,7 @@
         <v>0.29601498599999998</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -11850,7 +12087,7 @@
         <v>0.29371856200000002</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -11867,7 +12104,7 @@
         <v>0.29291888599999999</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>131</v>
       </c>
@@ -11884,7 +12121,7 @@
         <v>0.26930016699999998</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>132</v>
       </c>
@@ -11901,7 +12138,7 @@
         <v>0.26811027399999998</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>133</v>
       </c>
@@ -11918,7 +12155,7 @@
         <v>0.26714079699999999</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>134</v>
       </c>
@@ -11935,7 +12172,7 @@
         <v>0.26566743599999998</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>135</v>
       </c>
@@ -11952,7 +12189,7 @@
         <v>0.26485797500000002</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>136</v>
       </c>
@@ -11969,7 +12206,7 @@
         <v>0.26418550000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>137</v>
       </c>
@@ -11986,7 +12223,7 @@
         <v>0.26274852999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>138</v>
       </c>
@@ -12003,7 +12240,7 @@
         <v>0.26264748999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>139</v>
       </c>
@@ -12020,7 +12257,7 @@
         <v>0.26237329999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>140</v>
       </c>
@@ -12037,7 +12274,7 @@
         <v>0.26219909299999999</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>141</v>
       </c>
@@ -12054,7 +12291,7 @@
         <v>0.26184985700000002</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>142</v>
       </c>
@@ -12071,7 +12308,7 @@
         <v>0.261518431</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>143</v>
       </c>
@@ -12088,7 +12325,7 @@
         <v>0.255306849</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>144</v>
       </c>
@@ -12105,7 +12342,7 @@
         <v>0.25528805399999999</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>145</v>
       </c>
@@ -12122,7 +12359,7 @@
         <v>0.25519917399999997</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>146</v>
       </c>
@@ -12139,7 +12376,7 @@
         <v>0.25492705799999998</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>147</v>
       </c>
@@ -12156,7 +12393,7 @@
         <v>0.25459322600000001</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>148</v>
       </c>
@@ -12173,7 +12410,7 @@
         <v>0.25423103600000002</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>149</v>
       </c>
@@ -12190,7 +12427,7 @@
         <v>0.25404884799999999</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>150</v>
       </c>
@@ -12207,7 +12444,7 @@
         <v>0.25376747399999999</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>151</v>
       </c>
@@ -12224,7 +12461,7 @@
         <v>0.25360977400000001</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>152</v>
       </c>
@@ -12241,7 +12478,7 @@
         <v>0.25352349099999999</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>153</v>
       </c>
@@ -12258,7 +12495,7 @@
         <v>0.25344485999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>154</v>
       </c>
@@ -12275,7 +12512,7 @@
         <v>0.253309646</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>155</v>
       </c>
@@ -12292,7 +12529,7 @@
         <v>0.25321556200000001</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>156</v>
       </c>
@@ -12309,7 +12546,7 @@
         <v>0.25311136000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>157</v>
       </c>
@@ -12326,7 +12563,7 @@
         <v>0.25304470600000001</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>158</v>
       </c>
@@ -12343,7 +12580,7 @@
         <v>0.25296305899999999</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>159</v>
       </c>
@@ -12360,7 +12597,7 @@
         <v>0.252899612</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>160</v>
       </c>
@@ -12377,7 +12614,7 @@
         <v>0.25282832999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>161</v>
       </c>
@@ -12394,7 +12631,7 @@
         <v>0.252817342</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>162</v>
       </c>
@@ -12411,7 +12648,7 @@
         <v>0.233825335</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>163</v>
       </c>
@@ -12428,7 +12665,7 @@
         <v>0.23370043400000001</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>164</v>
       </c>
@@ -12445,7 +12682,7 @@
         <v>0.23350546999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>165</v>
       </c>
@@ -12462,7 +12699,7 @@
         <v>0.23326946500000001</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>166</v>
       </c>
@@ -12479,7 +12716,7 @@
         <v>0.233211591</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>167</v>
       </c>
@@ -12496,7 +12733,7 @@
         <v>0.233113032</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>168</v>
       </c>
@@ -12513,7 +12750,7 @@
         <v>0.23302060299999999</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>169</v>
       </c>
@@ -12530,7 +12767,7 @@
         <v>0.23276840200000001</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>170</v>
       </c>
@@ -12547,7 +12784,7 @@
         <v>0.23243121</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>171</v>
       </c>
@@ -12564,7 +12801,7 @@
         <v>0.23212268599999999</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>172</v>
       </c>
@@ -12581,7 +12818,7 @@
         <v>0.23197746899999999</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>173</v>
       </c>
@@ -12598,7 +12835,7 @@
         <v>0.23182972299999999</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>174</v>
       </c>
@@ -12615,7 +12852,7 @@
         <v>0.23180425499999999</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>175</v>
       </c>
@@ -12632,7 +12869,7 @@
         <v>0.23172605299999999</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>176</v>
       </c>
@@ -12649,7 +12886,7 @@
         <v>0.231371087</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>177</v>
       </c>
@@ -12666,7 +12903,7 @@
         <v>0.23049154099999999</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>178</v>
       </c>
@@ -12683,7 +12920,7 @@
         <v>0.23034653199999999</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>179</v>
       </c>
@@ -12700,7 +12937,7 @@
         <v>0.23025994699999999</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>180</v>
       </c>
@@ -12717,7 +12954,7 @@
         <v>0.23019081</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>181</v>
       </c>
@@ -12734,7 +12971,7 @@
         <v>0.23006549400000001</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>182</v>
       </c>
@@ -12751,7 +12988,7 @@
         <v>0.229923724</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>183</v>
       </c>
@@ -12768,7 +13005,7 @@
         <v>0.22975917300000001</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>184</v>
       </c>
@@ -12785,7 +13022,7 @@
         <v>0.229625474</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>185</v>
       </c>
@@ -12802,7 +13039,7 @@
         <v>0.229499391</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>186</v>
       </c>
@@ -12819,7 +13056,7 @@
         <v>0.22939897400000001</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>187</v>
       </c>
@@ -12836,7 +13073,7 @@
         <v>0.229369769</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>188</v>
       </c>
@@ -12853,7 +13090,7 @@
         <v>0.22930514299999999</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>189</v>
       </c>
@@ -12870,7 +13107,7 @@
         <v>0.22913139799999999</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>190</v>
       </c>
@@ -12887,7 +13124,7 @@
         <v>0.22667652099999999</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>191</v>
       </c>
@@ -12904,7 +13141,7 @@
         <v>0.224347197</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>192</v>
       </c>
@@ -12921,7 +13158,7 @@
         <v>0.221773369</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>193</v>
       </c>
@@ -12938,7 +13175,7 @@
         <v>0.218568507</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>194</v>
       </c>
@@ -12955,7 +13192,7 @@
         <v>0.209874691</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>195</v>
       </c>
@@ -12972,7 +13209,7 @@
         <v>0.19958480300000001</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>196</v>
       </c>
@@ -12989,7 +13226,7 @@
         <v>0.18996469999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>197</v>
       </c>
@@ -13006,7 +13243,7 @@
         <v>0.18238415899999999</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>198</v>
       </c>
@@ -13023,7 +13260,7 @@
         <v>0.17070920000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>199</v>
       </c>
@@ -13040,7 +13277,7 @@
         <v>0.15009204500000001</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>200</v>
       </c>
@@ -13057,7 +13294,7 @@
         <v>0.13670304999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>201</v>
       </c>
@@ -13074,7 +13311,7 @@
         <v>0.122960826</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>202</v>
       </c>
@@ -13091,7 +13328,7 @@
         <v>0.112729284</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>203</v>
       </c>
@@ -13108,7 +13345,7 @@
         <v>8.7501856000000003E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>204</v>
       </c>
@@ -13125,7 +13362,7 @@
         <v>6.1326969000000002E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>205</v>
       </c>
@@ -13142,7 +13379,7 @@
         <v>3.6084012999999998E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>206</v>
       </c>
@@ -13172,9 +13409,9 @@
       <selection sqref="A1:E226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -13191,7 +13428,7 @@
         <v>0.43729103896197102</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>207</v>
       </c>
@@ -13208,7 +13445,7 @@
         <v>0.43710262343462702</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>208</v>
       </c>
@@ -13225,7 +13462,7 @@
         <v>0.43667211016486601</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>209</v>
       </c>
@@ -13242,7 +13479,7 @@
         <v>0.43665225399241703</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>210</v>
       </c>
@@ -13259,7 +13496,7 @@
         <v>0.43606400074678298</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>211</v>
       </c>
@@ -13276,7 +13513,7 @@
         <v>0.43593154727711397</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>212</v>
       </c>
@@ -13293,7 +13530,7 @@
         <v>0.43641425637637798</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>213</v>
       </c>
@@ -13310,7 +13547,7 @@
         <v>0.43660043693991202</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>214</v>
       </c>
@@ -13327,7 +13564,7 @@
         <v>0.43627071784524302</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>215</v>
       </c>
@@ -13344,7 +13581,7 @@
         <v>0.43563274787453998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>216</v>
       </c>
@@ -13361,7 +13598,7 @@
         <v>0.43473205925436498</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>217</v>
       </c>
@@ -13378,7 +13615,7 @@
         <v>0.43284513047162199</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>218</v>
       </c>
@@ -13395,7 +13632,7 @@
         <v>0.43204048785041299</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>219</v>
       </c>
@@ -13412,7 +13649,7 @@
         <v>0.43215223604089997</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>220</v>
       </c>
@@ -13429,7 +13666,7 @@
         <v>0.431766895967371</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>221</v>
       </c>
@@ -13446,7 +13683,7 @@
         <v>0.432009613037109</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>222</v>
       </c>
@@ -13463,7 +13700,7 @@
         <v>0.431367634492761</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>223</v>
       </c>
@@ -13480,7 +13717,7 @@
         <v>0.43009206614774798</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>224</v>
       </c>
@@ -13497,7 +13734,7 @@
         <v>0.430167150160845</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>225</v>
       </c>
@@ -13514,7 +13751,7 @@
         <v>0.42935785271139698</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -13531,7 +13768,7 @@
         <v>0.42844293571920899</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>227</v>
       </c>
@@ -13548,7 +13785,7 @@
         <v>0.42833891027113902</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>228</v>
       </c>
@@ -13565,7 +13802,7 @@
         <v>0.42635441320082701</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>229</v>
       </c>
@@ -13582,7 +13819,7 @@
         <v>0.426007241641773</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>230</v>
       </c>
@@ -13599,7 +13836,7 @@
         <v>0.420705061968635</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>231</v>
       </c>
@@ -13616,7 +13853,7 @@
         <v>0.42008893181295898</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>232</v>
       </c>
@@ -13633,7 +13870,7 @@
         <v>0.42024569343118101</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>233</v>
       </c>
@@ -13650,7 +13887,7 @@
         <v>0.41995866483800498</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>234</v>
       </c>
@@ -13667,7 +13904,7 @@
         <v>0.414749693029067</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>235</v>
       </c>
@@ -13684,7 +13921,7 @@
         <v>0.414311159021714</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>236</v>
       </c>
@@ -13701,7 +13938,7 @@
         <v>0.41414716832777998</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>237</v>
       </c>
@@ -13718,7 +13955,7 @@
         <v>0.41366405531939299</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>238</v>
       </c>
@@ -13735,7 +13972,7 @@
         <v>0.38995005170036701</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>239</v>
       </c>
@@ -13752,7 +13989,7 @@
         <v>0.38868274464326702</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>240</v>
       </c>
@@ -13769,7 +14006,7 @@
         <v>0.38797022381950802</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>241</v>
       </c>
@@ -13786,7 +14023,7 @@
         <v>0.38767825137867601</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>242</v>
       </c>
@@ -13803,7 +14040,7 @@
         <v>0.38731944544175001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>243</v>
       </c>
@@ -13820,7 +14057,7 @@
         <v>0.38538980102539</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>244</v>
       </c>
@@ -13837,7 +14074,7 @@
         <v>0.38531387508616699</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>245</v>
       </c>
@@ -13854,7 +14091,7 @@
         <v>0.38532681453929202</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>246</v>
       </c>
@@ -13871,7 +14108,7 @@
         <v>0.38529523064108401</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>247</v>
       </c>
@@ -13888,7 +14125,7 @@
         <v>0.38516841035730698</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>248</v>
       </c>
@@ -13905,7 +14142,7 @@
         <v>0.38511543902228801</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>249</v>
       </c>
@@ -13922,7 +14159,7 @@
         <v>0.38508754954618502</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>250</v>
       </c>
@@ -13939,7 +14176,7 @@
         <v>0.38513457533892398</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>251</v>
       </c>
@@ -13956,7 +14193,7 @@
         <v>0.37495514095530702</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>252</v>
       </c>
@@ -13973,7 +14210,7 @@
         <v>0.37393779440487102</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>253</v>
       </c>
@@ -13990,7 +14227,7 @@
         <v>0.37356088974896601</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>254</v>
       </c>
@@ -14007,7 +14244,7 @@
         <v>0.37350124763039899</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>255</v>
       </c>
@@ -14024,7 +14261,7 @@
         <v>0.37303857780905297</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>256</v>
       </c>
@@ -14041,7 +14278,7 @@
         <v>0.37249300967945698</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>257</v>
       </c>
@@ -14058,7 +14295,7 @@
         <v>0.37258568976907103</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>258</v>
       </c>
@@ -14075,7 +14312,7 @@
         <v>0.37291334084903399</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>259</v>
       </c>
@@ -14092,7 +14329,7 @@
         <v>0.37181739717371298</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>260</v>
       </c>
@@ -14109,7 +14346,7 @@
         <v>0.372120293112362</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>261</v>
       </c>
@@ -14126,7 +14363,7 @@
         <v>0.37095890897862999</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>262</v>
       </c>
@@ -14143,7 +14380,7 @@
         <v>0.37084677303538599</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>263</v>
       </c>
@@ -14160,7 +14397,7 @@
         <v>0.37064786125631799</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>264</v>
       </c>
@@ -14177,7 +14414,7 @@
         <v>0.36945718563304197</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>265</v>
       </c>
@@ -14194,7 +14431,7 @@
         <v>0.36931945621265999</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>266</v>
       </c>
@@ -14211,7 +14448,7 @@
         <v>0.35333709357766502</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>267</v>
       </c>
@@ -14228,7 +14465,7 @@
         <v>0.35273081880457202</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>268</v>
       </c>
@@ -14245,7 +14482,7 @@
         <v>0.35257471062155299</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>269</v>
       </c>
@@ -14262,7 +14499,7 @@
         <v>0.35192094331629098</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>270</v>
       </c>
@@ -14279,7 +14516,7 @@
         <v>0.35183709896311999</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>271</v>
       </c>
@@ -14296,7 +14533,7 @@
         <v>0.33870672427906701</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>272</v>
       </c>
@@ -14313,7 +14550,7 @@
         <v>0.33818666525447999</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>273</v>
       </c>
@@ -14330,7 +14567,7 @@
         <v>0.33811838845645598</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>274</v>
       </c>
@@ -14347,7 +14584,7 @@
         <v>0.33805173627068003</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>275</v>
       </c>
@@ -14364,7 +14601,7 @@
         <v>0.33803397324505902</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>276</v>
       </c>
@@ -14381,7 +14618,7 @@
         <v>0.33768331729664502</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>277</v>
       </c>
@@ -14398,7 +14635,7 @@
         <v>0.33764541266946202</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>278</v>
       </c>
@@ -14415,7 +14652,7 @@
         <v>0.33759855382582699</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>279</v>
       </c>
@@ -14432,7 +14669,7 @@
         <v>0.33663679414636899</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>280</v>
       </c>
@@ -14449,7 +14686,7 @@
         <v>0.33658735566980602</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>281</v>
       </c>
@@ -14466,7 +14703,7 @@
         <v>0.32472381771311998</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>282</v>
       </c>
@@ -14483,7 +14720,7 @@
         <v>0.32435153736787598</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>283</v>
       </c>
@@ -14500,7 +14737,7 @@
         <v>0.32430340576171801</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>284</v>
       </c>
@@ -14517,7 +14754,7 @@
         <v>0.32385589958639699</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>285</v>
       </c>
@@ -14534,7 +14771,7 @@
         <v>0.32388335104549598</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>286</v>
       </c>
@@ -14551,7 +14788,7 @@
         <v>0.32319887946633702</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>287</v>
       </c>
@@ -14568,7 +14805,7 @@
         <v>0.32306966445025198</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>288</v>
       </c>
@@ -14585,7 +14822,7 @@
         <v>0.32301600198184699</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>289</v>
       </c>
@@ -14602,7 +14839,7 @@
         <v>0.322445752312155</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>290</v>
       </c>
@@ -14619,7 +14856,7 @@
         <v>0.322327755198759</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>291</v>
       </c>
@@ -14636,7 +14873,7 @@
         <v>0.321903724221622</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>292</v>
       </c>
@@ -14653,7 +14890,7 @@
         <v>0.31248497278550003</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>293</v>
       </c>
@@ -14670,7 +14907,7 @@
         <v>0.31189413272633199</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>294</v>
       </c>
@@ -14687,7 +14924,7 @@
         <v>0.31169740744197999</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>295</v>
       </c>
@@ -14704,7 +14941,7 @@
         <v>0.31153092148724698</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>296</v>
       </c>
@@ -14721,7 +14958,7 @@
         <v>0.31145956061868102</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>297</v>
       </c>
@@ -14738,7 +14975,7 @@
         <v>0.311089231603285</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>298</v>
       </c>
@@ -14755,7 +14992,7 @@
         <v>0.31046845559512798</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>299</v>
       </c>
@@ -14772,7 +15009,7 @@
         <v>0.31032421695484802</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>300</v>
       </c>
@@ -14789,7 +15026,7 @@
         <v>0.30902159028894699</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>301</v>
       </c>
@@ -14806,7 +15043,7 @@
         <v>0.30889788638844201</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>302</v>
       </c>
@@ -14823,7 +15060,7 @@
         <v>0.30898552389705802</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>303</v>
       </c>
@@ -14840,7 +15077,7 @@
         <v>0.30875856287339098</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>304</v>
       </c>
@@ -14857,7 +15094,7 @@
         <v>0.30845572796989801</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>305</v>
       </c>
@@ -14874,7 +15111,7 @@
         <v>0.30585600191004098</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>306</v>
       </c>
@@ -14891,7 +15128,7 @@
         <v>0.30601178876091401</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>307</v>
       </c>
@@ -14908,7 +15145,7 @@
         <v>0.30595101569680599</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>308</v>
       </c>
@@ -14925,7 +15162,7 @@
         <v>0.30598181331858898</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>309</v>
       </c>
@@ -14942,7 +15179,7 @@
         <v>0.30581996962603403</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>310</v>
       </c>
@@ -14959,7 +15196,7 @@
         <v>0.30556810625861602</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>311</v>
       </c>
@@ -14976,7 +15213,7 @@
         <v>0.30546091775333101</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>312</v>
       </c>
@@ -14993,7 +15230,7 @@
         <v>0.30549954941693402</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>313</v>
       </c>
@@ -15010,7 +15247,7 @@
         <v>0.305408976835363</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>314</v>
       </c>
@@ -15027,7 +15264,7 @@
         <v>0.305241794361787</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>315</v>
       </c>
@@ -15044,7 +15281,7 @@
         <v>0.30523305197322997</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>316</v>
       </c>
@@ -15061,7 +15298,7 @@
         <v>0.30510586188821198</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>317</v>
       </c>
@@ -15078,7 +15315,7 @@
         <v>0.30512941068761401</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>318</v>
       </c>
@@ -15095,7 +15332,7 @@
         <v>0.30507093182731998</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>319</v>
       </c>
@@ -15112,7 +15349,7 @@
         <v>0.305127005184398</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>320</v>
       </c>
@@ -15129,7 +15366,7 @@
         <v>0.30509164608226103</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>321</v>
       </c>
@@ -15146,7 +15383,7 @@
         <v>0.28555291389016502</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>322</v>
       </c>
@@ -15163,7 +15400,7 @@
         <v>0.285575222239774</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>323</v>
       </c>
@@ -15180,7 +15417,7 @@
         <v>0.28560221952550502</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>324</v>
       </c>
@@ -15197,7 +15434,7 @@
         <v>0.28533743286132801</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>325</v>
       </c>
@@ -15214,7 +15451,7 @@
         <v>0.285300432990579</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>326</v>
       </c>
@@ -15231,7 +15468,7 @@
         <v>0.28507084566004098</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>327</v>
       </c>
@@ -15248,7 +15485,7 @@
         <v>0.285019051944508</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>328</v>
       </c>
@@ -15265,7 +15502,7 @@
         <v>0.28446789371266001</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>329</v>
       </c>
@@ -15282,7 +15519,7 @@
         <v>0.28427268353630503</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>330</v>
       </c>
@@ -15299,7 +15536,7 @@
         <v>0.272550515567555</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>331</v>
       </c>
@@ -15316,7 +15553,7 @@
         <v>0.27219021965475598</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>332</v>
       </c>
@@ -15333,7 +15570,7 @@
         <v>0.271850928811466</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>333</v>
       </c>
@@ -15350,7 +15587,7 @@
         <v>0.27165634334788602</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>334</v>
       </c>
@@ -15367,7 +15604,7 @@
         <v>0.27156046070772</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>335</v>
       </c>
@@ -15384,7 +15621,7 @@
         <v>0.271099496280445</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>336</v>
       </c>
@@ -15401,7 +15638,7 @@
         <v>0.27107527609432402</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>337</v>
       </c>
@@ -15418,7 +15655,7 @@
         <v>0.27098125323127298</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>338</v>
       </c>
@@ -15435,7 +15672,7 @@
         <v>0.27036711210363001</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>339</v>
       </c>
@@ -15452,7 +15689,7 @@
         <v>0.27011804558248997</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>340</v>
       </c>
@@ -15469,7 +15706,7 @@
         <v>0.26426607917336797</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>341</v>
       </c>
@@ -15486,7 +15723,7 @@
         <v>0.26409850356157999</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>342</v>
       </c>
@@ -15503,7 +15740,7 @@
         <v>0.26387327844956299</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>343</v>
       </c>
@@ -15520,7 +15757,7 @@
         <v>0.26374530926872702</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>344</v>
       </c>
@@ -15537,7 +15774,7 @@
         <v>0.26373384722541299</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>345</v>
       </c>
@@ -15554,7 +15791,7 @@
         <v>0.26363862879136002</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>346</v>
       </c>
@@ -15571,7 +15808,7 @@
         <v>0.26361324175666301</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>347</v>
       </c>
@@ -15588,7 +15825,7 @@
         <v>0.26348901546702602</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>348</v>
       </c>
@@ -15605,7 +15842,7 @@
         <v>0.262759336583754</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>349</v>
       </c>
@@ -15622,7 +15859,7 @@
         <v>0.26275553983800498</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>350</v>
       </c>
@@ -15639,7 +15876,7 @@
         <v>0.243856036017922</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>351</v>
       </c>
@@ -15656,7 +15893,7 @@
         <v>0.24341026575425001</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>352</v>
       </c>
@@ -15673,7 +15910,7 @@
         <v>0.243491447897518</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>353</v>
       </c>
@@ -15690,7 +15927,7 @@
         <v>0.24302546781652101</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>354</v>
       </c>
@@ -15707,7 +15944,7 @@
         <v>0.2429769969267</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>355</v>
       </c>
@@ -15724,7 +15961,7 @@
         <v>0.242287778966567</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>356</v>
       </c>
@@ -15741,7 +15978,7 @@
         <v>0.24206047865923699</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>357</v>
       </c>
@@ -15758,7 +15995,7 @@
         <v>0.24188869341681901</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>358</v>
       </c>
@@ -15775,7 +16012,7 @@
         <v>0.23590615306181001</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>359</v>
       </c>
@@ -15792,7 +16029,7 @@
         <v>0.23560969453699401</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>360</v>
       </c>
@@ -15809,7 +16046,7 @@
         <v>0.23563431683708599</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>361</v>
       </c>
@@ -15826,7 +16063,7 @@
         <v>0.23551204546760099</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>362</v>
       </c>
@@ -15843,7 +16080,7 @@
         <v>0.23552252915326199</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>363</v>
       </c>
@@ -15860,7 +16097,7 @@
         <v>0.23565038703469601</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>364</v>
       </c>
@@ -15877,7 +16114,7 @@
         <v>0.235298946605009</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>365</v>
       </c>
@@ -15894,7 +16131,7 @@
         <v>0.23525777659696601</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>366</v>
       </c>
@@ -15911,7 +16148,7 @@
         <v>0.23533360380284901</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>367</v>
       </c>
@@ -15928,7 +16165,7 @@
         <v>0.23522801657284001</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>368</v>
       </c>
@@ -15945,7 +16182,7 @@
         <v>0.235193100873161</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>369</v>
       </c>
@@ -15962,7 +16199,7 @@
         <v>0.235081787109375</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>370</v>
       </c>
@@ -15979,7 +16216,7 @@
         <v>0.23503062169691999</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>371</v>
       </c>
@@ -15996,7 +16233,7 @@
         <v>0.23491936537798699</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>372</v>
       </c>
@@ -16013,7 +16250,7 @@
         <v>0.23473549876493499</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>373</v>
       </c>
@@ -16030,7 +16267,7 @@
         <v>0.234454284667968</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>374</v>
       </c>
@@ -16047,7 +16284,7 @@
         <v>0.23454358628216901</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>375</v>
       </c>
@@ -16064,7 +16301,7 @@
         <v>0.23402761302274799</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>189</v>
       </c>
@@ -16081,7 +16318,7 @@
         <v>0.23395764160156199</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>190</v>
       </c>
@@ -16098,7 +16335,7 @@
         <v>0.231443887149586</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>191</v>
       </c>
@@ -16115,7 +16352,7 @@
         <v>0.22910289091222399</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>192</v>
       </c>
@@ -16132,7 +16369,7 @@
         <v>0.226300659179687</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>193</v>
       </c>
@@ -16149,7 +16386,7 @@
         <v>0.22272409955193001</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>194</v>
       </c>
@@ -16166,7 +16403,7 @@
         <v>0.21405996165555999</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>195</v>
       </c>
@@ -16183,7 +16420,7 @@
         <v>0.203624213723575</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>196</v>
       </c>
@@ -16200,7 +16437,7 @@
         <v>0.19383775419347399</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>197</v>
       </c>
@@ -16217,7 +16454,7 @@
         <v>0.186050849465762</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>198</v>
       </c>
@@ -16234,7 +16471,7 @@
         <v>0.17423331227021999</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>199</v>
       </c>
@@ -16251,7 +16488,7 @@
         <v>0.15331418744255501</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>200</v>
       </c>
@@ -16268,7 +16505,7 @@
         <v>0.13961796659581799</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>201</v>
       </c>
@@ -16285,7 +16522,7 @@
         <v>0.12552972412109301</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>202</v>
       </c>
@@ -16302,7 +16539,7 @@
         <v>0.115243257410386</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -16319,7 +16556,7 @@
         <v>8.8011205336626805E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>204</v>
       </c>
@@ -16336,7 +16573,7 @@
         <v>6.1469159294577198E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>205</v>
       </c>
@@ -16353,7 +16590,7 @@
         <v>3.6106890510110297E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>206</v>
       </c>
@@ -16383,9 +16620,9 @@
       <selection sqref="A1:E171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -16402,7 +16639,7 @@
         <v>0.42921422442267898</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>376</v>
       </c>
@@ -16419,7 +16656,7 @@
         <v>0.429018996294807</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>377</v>
       </c>
@@ -16436,7 +16673,7 @@
         <v>0.430995000502642</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>378</v>
       </c>
@@ -16453,7 +16690,7 @@
         <v>0.43125321152630902</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>379</v>
       </c>
@@ -16470,7 +16707,7 @@
         <v>0.43106557688993502</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>380</v>
       </c>
@@ -16487,7 +16724,7 @@
         <v>0.43352913710650198</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>381</v>
       </c>
@@ -16504,7 +16741,7 @@
         <v>0.432183098288143</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>382</v>
       </c>
@@ -16521,7 +16758,7 @@
         <v>0.43291299258961302</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>383</v>
       </c>
@@ -16538,7 +16775,7 @@
         <v>0.43273791144875901</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>384</v>
       </c>
@@ -16555,7 +16792,7 @@
         <v>0.432577823414522</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>385</v>
       </c>
@@ -16572,7 +16809,7 @@
         <v>0.43235329302619402</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>386</v>
       </c>
@@ -16589,7 +16826,7 @@
         <v>0.43234687894933299</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>387</v>
       </c>
@@ -16606,7 +16843,7 @@
         <v>0.43200047032973299</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>388</v>
       </c>
@@ -16623,7 +16860,7 @@
         <v>0.42548639634076202</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>389</v>
       </c>
@@ -16640,7 +16877,7 @@
         <v>0.40499603989545002</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>390</v>
       </c>
@@ -16657,7 +16894,7 @@
         <v>0.40466876579733402</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>391</v>
       </c>
@@ -16674,7 +16911,7 @@
         <v>0.40422575827205798</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>392</v>
       </c>
@@ -16691,7 +16928,7 @@
         <v>0.40447452859317501</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>393</v>
       </c>
@@ -16708,7 +16945,7 @@
         <v>0.40390656774184203</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>394</v>
       </c>
@@ -16725,7 +16962,7 @@
         <v>0.40312386725930599</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>395</v>
       </c>
@@ -16742,7 +16979,7 @@
         <v>0.40291780180089598</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>396</v>
       </c>
@@ -16759,7 +16996,7 @@
         <v>0.40477018827550498</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>397</v>
       </c>
@@ -16776,7 +17013,7 @@
         <v>0.40441976210650199</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>398</v>
       </c>
@@ -16793,7 +17030,7 @@
         <v>0.39229268152573499</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>399</v>
       </c>
@@ -16810,7 +17047,7 @@
         <v>0.390095457189223</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>400</v>
       </c>
@@ -16827,7 +17064,7 @@
         <v>0.38968380737304598</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>401</v>
       </c>
@@ -16844,7 +17081,7 @@
         <v>0.38973176664464598</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>402</v>
       </c>
@@ -16861,7 +17098,7 @@
         <v>0.389768394919002</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>403</v>
       </c>
@@ -16878,7 +17115,7 @@
         <v>0.39013838106043103</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>404</v>
       </c>
@@ -16895,7 +17132,7 @@
         <v>0.38862122479606998</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>405</v>
       </c>
@@ -16912,7 +17149,7 @@
         <v>0.38770558794806897</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>406</v>
       </c>
@@ -16929,7 +17166,7 @@
         <v>0.38755912331973802</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>407</v>
       </c>
@@ -16946,7 +17183,7 @@
         <v>0.386904526654411</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>408</v>
       </c>
@@ -16963,7 +17200,7 @@
         <v>0.37517853860294098</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>409</v>
       </c>
@@ -16980,7 +17217,7 @@
         <v>0.37457244154986202</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>410</v>
       </c>
@@ -16997,7 +17234,7 @@
         <v>0.37518836705824898</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>411</v>
       </c>
@@ -17014,7 +17251,7 @@
         <v>0.37444809318991201</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>412</v>
       </c>
@@ -17031,7 +17268,7 @@
         <v>0.37406483549230202</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>413</v>
       </c>
@@ -17048,7 +17285,7 @@
         <v>0.37421413466509601</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>414</v>
       </c>
@@ -17065,7 +17302,7 @@
         <v>0.374084242876838</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>415</v>
       </c>
@@ -17082,7 +17319,7 @@
         <v>0.374087457993451</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>416</v>
       </c>
@@ -17099,7 +17336,7 @@
         <v>0.373935329661649</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>417</v>
       </c>
@@ -17116,7 +17353,7 @@
         <v>0.372981730741613</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>418</v>
       </c>
@@ -17133,7 +17370,7 @@
         <v>0.37292309929342798</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>419</v>
       </c>
@@ -17150,7 +17387,7 @@
         <v>0.37262096988453502</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>420</v>
       </c>
@@ -17167,7 +17404,7 @@
         <v>0.37267920639935598</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>421</v>
       </c>
@@ -17184,7 +17421,7 @@
         <v>0.37252074297736598</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>422</v>
       </c>
@@ -17201,7 +17438,7 @@
         <v>0.37241645902745801</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>423</v>
       </c>
@@ -17218,7 +17455,7 @@
         <v>0.37283019660500899</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>424</v>
       </c>
@@ -17235,7 +17472,7 @@
         <v>0.372530952004825</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>425</v>
       </c>
@@ -17252,7 +17489,7 @@
         <v>0.35504517499138299</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>426</v>
       </c>
@@ -17269,7 +17506,7 @@
         <v>0.35494390330595099</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>427</v>
       </c>
@@ -17286,7 +17523,7 @@
         <v>0.35450898114372698</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>428</v>
       </c>
@@ -17303,7 +17540,7 @@
         <v>0.35277918019014198</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>429</v>
       </c>
@@ -17320,7 +17557,7 @@
         <v>0.35232488295611197</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>430</v>
       </c>
@@ -17337,7 +17574,7 @@
         <v>0.352630498549517</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>431</v>
       </c>
@@ -17354,7 +17591,7 @@
         <v>0.35236131555893802</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>432</v>
       </c>
@@ -17371,7 +17608,7 @@
         <v>0.35241257611443</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>433</v>
       </c>
@@ -17388,7 +17625,7 @@
         <v>0.352408802705652</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>434</v>
       </c>
@@ -17405,7 +17642,7 @@
         <v>0.35272809735466398</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>435</v>
       </c>
@@ -17422,7 +17659,7 @@
         <v>0.35235301298253602</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>436</v>
       </c>
@@ -17439,7 +17676,7 @@
         <v>0.352754031910615</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>437</v>
       </c>
@@ -17456,7 +17693,7 @@
         <v>0.34590163107479299</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>438</v>
       </c>
@@ -17473,7 +17710,7 @@
         <v>0.34601003489774801</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>439</v>
       </c>
@@ -17490,7 +17727,7 @@
         <v>0.34619768030503201</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>440</v>
       </c>
@@ -17507,7 +17744,7 @@
         <v>0.34597122910443401</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>441</v>
       </c>
@@ -17524,7 +17761,7 @@
         <v>0.34583740413890102</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>442</v>
       </c>
@@ -17541,7 +17778,7 @@
         <v>0.34614170029584101</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>443</v>
       </c>
@@ -17558,7 +17795,7 @@
         <v>0.345957429773667</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>444</v>
       </c>
@@ -17575,7 +17812,7 @@
         <v>0.34599307789521999</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>445</v>
       </c>
@@ -17592,7 +17829,7 @@
         <v>0.34597550156537199</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>446</v>
       </c>
@@ -17609,7 +17846,7 @@
         <v>0.34694667502010501</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>447</v>
       </c>
@@ -17626,7 +17863,7 @@
         <v>0.34318068201401603</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>448</v>
       </c>
@@ -17643,7 +17880,7 @@
         <v>0.345724131864659</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>449</v>
       </c>
@@ -17660,7 +17897,7 @@
         <v>0.33366517010857</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>450</v>
       </c>
@@ -17677,7 +17914,7 @@
         <v>0.331689052806181</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>451</v>
       </c>
@@ -17694,7 +17931,7 @@
         <v>0.33324387853285797</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>452</v>
       </c>
@@ -17711,7 +17948,7 @@
         <v>0.33312577909581798</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>453</v>
       </c>
@@ -17728,7 +17965,7 @@
         <v>0.33289797614602401</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>454</v>
       </c>
@@ -17745,7 +17982,7 @@
         <v>0.333532143985523</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>455</v>
       </c>
@@ -17762,7 +17999,7 @@
         <v>0.333287685618681</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>456</v>
       </c>
@@ -17779,7 +18016,7 @@
         <v>0.31909138399011899</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>457</v>
       </c>
@@ -17796,7 +18033,7 @@
         <v>0.31947199024873602</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>458</v>
       </c>
@@ -17813,7 +18050,7 @@
         <v>0.319405366785386</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>459</v>
       </c>
@@ -17830,7 +18067,7 @@
         <v>0.31921981272977901</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>460</v>
       </c>
@@ -17847,7 +18084,7 @@
         <v>0.31887250114889698</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>461</v>
       </c>
@@ -17864,7 +18101,7 @@
         <v>0.31804298490636401</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>462</v>
       </c>
@@ -17881,7 +18118,7 @@
         <v>0.31783569515452598</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>463</v>
       </c>
@@ -17898,7 +18135,7 @@
         <v>0.318702272302964</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>464</v>
       </c>
@@ -17915,7 +18152,7 @@
         <v>0.317501218907973</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>465</v>
       </c>
@@ -17932,7 +18169,7 @@
         <v>0.31693260821174102</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>466</v>
       </c>
@@ -17949,7 +18186,7 @@
         <v>0.31632487398035303</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>467</v>
       </c>
@@ -17966,7 +18203,7 @@
         <v>0.31671367869657602</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>468</v>
       </c>
@@ -17983,7 +18220,7 @@
         <v>0.310213050393497</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>469</v>
       </c>
@@ -18000,7 +18237,7 @@
         <v>0.31046133422851502</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>470</v>
       </c>
@@ -18017,7 +18254,7 @@
         <v>0.31034236593807402</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>471</v>
       </c>
@@ -18034,7 +18271,7 @@
         <v>0.31007303035960398</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>472</v>
       </c>
@@ -18051,7 +18288,7 @@
         <v>0.30988296688304201</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>473</v>
       </c>
@@ -18068,7 +18305,7 @@
         <v>0.31014144179400199</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>474</v>
       </c>
@@ -18085,7 +18322,7 @@
         <v>0.30905931181066099</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>475</v>
       </c>
@@ -18102,7 +18339,7 @@
         <v>0.298668245203354</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>476</v>
       </c>
@@ -18119,7 +18356,7 @@
         <v>0.29865459846047698</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>477</v>
       </c>
@@ -18136,7 +18373,7 @@
         <v>0.298805443258846</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>478</v>
       </c>
@@ -18153,7 +18390,7 @@
         <v>0.29771734439625402</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>479</v>
       </c>
@@ -18170,7 +18407,7 @@
         <v>0.29757185094496702</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>480</v>
       </c>
@@ -18187,7 +18424,7 @@
         <v>0.29753210449218698</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>481</v>
       </c>
@@ -18204,7 +18441,7 @@
         <v>0.29747765754250899</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>482</v>
       </c>
@@ -18221,7 +18458,7 @@
         <v>0.297346712000229</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>483</v>
       </c>
@@ -18238,7 +18475,7 @@
         <v>0.29726790843290402</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>484</v>
       </c>
@@ -18255,7 +18492,7 @@
         <v>0.29728485825482498</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>485</v>
       </c>
@@ -18272,7 +18509,7 @@
         <v>0.29720541561351099</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>486</v>
       </c>
@@ -18289,7 +18526,7 @@
         <v>0.29717529835420498</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>487</v>
       </c>
@@ -18306,7 +18543,7 @@
         <v>0.297126199161305</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>488</v>
       </c>
@@ -18323,7 +18560,7 @@
         <v>0.29664582196403899</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>489</v>
       </c>
@@ -18340,7 +18577,7 @@
         <v>0.29685017305261902</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>490</v>
       </c>
@@ -18357,7 +18594,7 @@
         <v>0.29579739020852402</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>491</v>
       </c>
@@ -18374,7 +18611,7 @@
         <v>0.29574627326516501</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>492</v>
       </c>
@@ -18391,7 +18628,7 @@
         <v>0.295449184642118</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>493</v>
       </c>
@@ -18408,7 +18645,7 @@
         <v>0.29574119478113498</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>494</v>
       </c>
@@ -18425,7 +18662,7 @@
         <v>0.29547276575425002</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>495</v>
       </c>
@@ -18442,7 +18679,7 @@
         <v>0.27609312169692002</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>496</v>
       </c>
@@ -18459,7 +18696,7 @@
         <v>0.27584366742302302</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>497</v>
       </c>
@@ -18476,7 +18713,7 @@
         <v>0.27594464829388698</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>498</v>
       </c>
@@ -18493,7 +18730,7 @@
         <v>0.27594930671243101</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>499</v>
       </c>
@@ -18510,7 +18747,7 @@
         <v>0.275592875761144</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>500</v>
       </c>
@@ -18527,7 +18764,7 @@
         <v>0.27556206557329899</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>501</v>
       </c>
@@ -18544,7 +18781,7 @@
         <v>0.27558715461282102</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>502</v>
       </c>
@@ -18561,7 +18798,7 @@
         <v>0.27546622960707701</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>503</v>
       </c>
@@ -18578,7 +18815,7 @@
         <v>0.269017333984375</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>504</v>
       </c>
@@ -18595,7 +18832,7 @@
         <v>0.26896092672909</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>505</v>
       </c>
@@ -18612,7 +18849,7 @@
         <v>0.26901188031364798</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>506</v>
       </c>
@@ -18629,7 +18866,7 @@
         <v>0.26895210535385999</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>507</v>
       </c>
@@ -18646,7 +18883,7 @@
         <v>0.26900322409237098</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>508</v>
       </c>
@@ -18663,7 +18900,7 @@
         <v>0.26877497414981599</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>509</v>
       </c>
@@ -18680,7 +18917,7 @@
         <v>0.26877909043255899</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>510</v>
       </c>
@@ -18697,7 +18934,7 @@
         <v>0.26648753446691098</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>511</v>
       </c>
@@ -18714,7 +18951,7 @@
         <v>0.266553337545955</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>512</v>
       </c>
@@ -18731,7 +18968,7 @@
         <v>0.26621061796300499</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>513</v>
       </c>
@@ -18748,7 +18985,7 @@
         <v>0.26615178007238</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>514</v>
       </c>
@@ -18765,7 +19002,7 @@
         <v>0.26604045194738002</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>515</v>
       </c>
@@ -18782,7 +19019,7 @@
         <v>0.26598531206916298</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>516</v>
       </c>
@@ -18799,7 +19036,7 @@
         <v>0.266514422248391</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>517</v>
       </c>
@@ -18816,7 +19053,7 @@
         <v>0.26683199893727</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>518</v>
       </c>
@@ -18833,7 +19070,7 @@
         <v>0.26663661104089997</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>519</v>
       </c>
@@ -18850,7 +19087,7 @@
         <v>0.26678217270795002</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>520</v>
       </c>
@@ -18867,7 +19104,7 @@
         <v>0.23867738252527501</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>521</v>
       </c>
@@ -18884,7 +19121,7 @@
         <v>0.238858761058134</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>522</v>
       </c>
@@ -18901,7 +19138,7 @@
         <v>0.237949333639705</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>523</v>
       </c>
@@ -18918,7 +19155,7 @@
         <v>0.23799204388786699</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>524</v>
       </c>
@@ -18935,7 +19172,7 @@
         <v>0.23668976189108401</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>525</v>
       </c>
@@ -18952,7 +19189,7 @@
         <v>0.23662819177964101</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>526</v>
       </c>
@@ -18969,7 +19206,7 @@
         <v>0.236563081629136</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>527</v>
       </c>
@@ -18986,7 +19223,7 @@
         <v>0.235867054658777</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>528</v>
       </c>
@@ -19003,7 +19240,7 @@
         <v>0.235242980957031</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>529</v>
       </c>
@@ -19020,7 +19257,7 @@
         <v>0.23276704316980601</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>530</v>
       </c>
@@ -19037,7 +19274,7 @@
         <v>0.230317921357996</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>531</v>
       </c>
@@ -19054,7 +19291,7 @@
         <v>0.227395744772518</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>532</v>
       </c>
@@ -19071,7 +19308,7 @@
         <v>0.22374806482651599</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>533</v>
       </c>
@@ -19088,7 +19325,7 @@
         <v>0.21496500890395201</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>534</v>
       </c>
@@ -19105,7 +19342,7 @@
         <v>0.204501260196461</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>535</v>
       </c>
@@ -19122,7 +19359,7 @@
         <v>0.194614469640395</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>536</v>
       </c>
@@ -19139,7 +19376,7 @@
         <v>0.18675301226447599</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>537</v>
       </c>
@@ -19156,7 +19393,7 @@
         <v>0.17497482120289501</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>538</v>
       </c>
@@ -19173,7 +19410,7 @@
         <v>0.153971475040211</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>539</v>
       </c>
@@ -19190,7 +19427,7 @@
         <v>0.14021142937155301</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>540</v>
       </c>
@@ -19207,7 +19444,7 @@
         <v>0.12606042480468699</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>541</v>
       </c>
@@ -19224,7 +19461,7 @@
         <v>0.115431561638327</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>542</v>
       </c>
@@ -19241,7 +19478,7 @@
         <v>8.8182200712316097E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>543</v>
       </c>
@@ -19258,7 +19495,7 @@
         <v>6.1554522346047698E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>544</v>
       </c>
@@ -19275,7 +19512,7 @@
         <v>3.6129574046415397E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>189</v>
       </c>
@@ -19305,9 +19542,9 @@
       <selection sqref="A1:E172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -19324,7 +19561,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -19341,7 +19578,7 @@
         <v>0.43515095250746699</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>545</v>
       </c>
@@ -19358,7 +19595,7 @@
         <v>0.434898692411534</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>546</v>
       </c>
@@ -19375,7 +19612,7 @@
         <v>0.43467107615751299</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>547</v>
       </c>
@@ -19392,7 +19629,7 @@
         <v>0.43518402458639699</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>548</v>
       </c>
@@ -19409,7 +19646,7 @@
         <v>0.43506987986845103</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>549</v>
       </c>
@@ -19426,7 +19663,7 @@
         <v>0.434301727294921</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>550</v>
       </c>
@@ -19443,7 +19680,7 @@
         <v>0.43539549704158997</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>551</v>
       </c>
@@ -19460,7 +19697,7 @@
         <v>0.43532861507640103</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>552</v>
       </c>
@@ -19477,7 +19714,7 @@
         <v>0.43527111995921403</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>553</v>
       </c>
@@ -19494,7 +19731,7 @@
         <v>0.43519116569967797</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>554</v>
       </c>
@@ -19511,7 +19748,7 @@
         <v>0.434985285141888</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>555</v>
       </c>
@@ -19528,7 +19765,7 @@
         <v>0.43438250732421801</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>556</v>
       </c>
@@ -19545,7 +19782,7 @@
         <v>0.43411532413258203</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>557</v>
       </c>
@@ -19562,7 +19799,7 @@
         <v>0.43385253367704502</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>558</v>
       </c>
@@ -19579,7 +19816,7 @@
         <v>0.43323099472943399</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>559</v>
       </c>
@@ -19596,7 +19833,7 @@
         <v>0.43356863044289901</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>560</v>
       </c>
@@ -19613,7 +19850,7 @@
         <v>0.42233914364085401</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>561</v>
       </c>
@@ -19630,7 +19867,7 @@
         <v>0.42191512882008197</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>562</v>
       </c>
@@ -19647,7 +19884,7 @@
         <v>0.42094841631720997</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>563</v>
       </c>
@@ -19664,7 +19901,7 @@
         <v>0.42089571964039502</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>564</v>
       </c>
@@ -19681,7 +19918,7 @@
         <v>0.42082775878906198</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>565</v>
       </c>
@@ -19698,7 +19935,7 @@
         <v>0.42078038114659899</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>566</v>
       </c>
@@ -19715,7 +19952,7 @@
         <v>0.42075814998851102</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>567</v>
       </c>
@@ -19732,7 +19969,7 @@
         <v>0.42073433191636</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>568</v>
       </c>
@@ -19749,7 +19986,7 @@
         <v>0.420286312327665</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>569</v>
       </c>
@@ -19766,7 +20003,7 @@
         <v>0.419840829288258</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>570</v>
       </c>
@@ -19783,7 +20020,7 @@
         <v>0.41970583029354303</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>571</v>
       </c>
@@ -19800,7 +20037,7 @@
         <v>0.41897682459214097</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>572</v>
       </c>
@@ -19817,7 +20054,7 @@
         <v>0.41697391465130901</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>573</v>
       </c>
@@ -19834,7 +20071,7 @@
         <v>0.41679646031996698</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>574</v>
       </c>
@@ -19851,7 +20088,7 @@
         <v>0.41789923993278899</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>575</v>
       </c>
@@ -19868,7 +20105,7 @@
         <v>0.41772367769129098</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>576</v>
       </c>
@@ -19885,7 +20122,7 @@
         <v>0.40723517025218198</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>577</v>
       </c>
@@ -19902,7 +20139,7 @@
         <v>0.40765617639878199</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>578</v>
       </c>
@@ -19919,7 +20156,7 @@
         <v>0.407256660012637</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>579</v>
       </c>
@@ -19936,7 +20173,7 @@
         <v>0.40678082993451198</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>580</v>
       </c>
@@ -19953,7 +20190,7 @@
         <v>0.40666201423196202</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>581</v>
       </c>
@@ -19970,7 +20207,7 @@
         <v>0.40653413121840498</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>582</v>
       </c>
@@ -19987,7 +20224,7 @@
         <v>0.40639850212545903</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>583</v>
       </c>
@@ -20004,7 +20241,7 @@
         <v>0.40604302080939703</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>584</v>
       </c>
@@ -20021,7 +20258,7 @@
         <v>0.405978556913488</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>585</v>
       </c>
@@ -20038,7 +20275,7 @@
         <v>0.39965104765050502</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>586</v>
       </c>
@@ -20055,7 +20292,7 @@
         <v>0.39947070492015102</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>587</v>
       </c>
@@ -20072,7 +20309,7 @@
         <v>0.399742668600643</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>588</v>
       </c>
@@ -20089,7 +20326,7 @@
         <v>0.398743000703699</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>589</v>
       </c>
@@ -20106,7 +20343,7 @@
         <v>0.39870124727136902</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>590</v>
       </c>
@@ -20123,7 +20360,7 @@
         <v>0.39829271742876798</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>591</v>
       </c>
@@ -20140,7 +20377,7 @@
         <v>0.39785758882410299</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>592</v>
       </c>
@@ -20157,7 +20394,7 @@
         <v>0.39745318424000398</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>593</v>
       </c>
@@ -20174,7 +20411,7 @@
         <v>0.39661069623161699</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>594</v>
       </c>
@@ -20191,7 +20428,7 @@
         <v>0.39731479420381399</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>595</v>
       </c>
@@ -20208,7 +20445,7 @@
         <v>0.39642813289866702</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>596</v>
       </c>
@@ -20225,7 +20462,7 @@
         <v>0.37068892176010998</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>597</v>
       </c>
@@ -20242,7 +20479,7 @@
         <v>0.37022157377355203</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>598</v>
       </c>
@@ -20259,7 +20496,7 @@
         <v>0.36718546788832701</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>599</v>
       </c>
@@ -20276,7 +20513,7 @@
         <v>0.36613008207433301</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>600</v>
       </c>
@@ -20293,7 +20530,7 @@
         <v>0.36564515057732</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>601</v>
       </c>
@@ -20310,7 +20547,7 @@
         <v>0.36389078117819301</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>602</v>
       </c>
@@ -20327,7 +20564,7 @@
         <v>0.36381067433076703</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>603</v>
       </c>
@@ -20344,7 +20581,7 @@
         <v>0.36377038753733898</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>604</v>
       </c>
@@ -20361,7 +20598,7 @@
         <v>0.363735586727366</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>605</v>
       </c>
@@ -20378,7 +20615,7 @@
         <v>0.36359890567555098</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>606</v>
       </c>
@@ -20395,7 +20632,7 @@
         <v>0.36316113819795498</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>607</v>
       </c>
@@ -20412,7 +20649,7 @@
         <v>0.36301438993566099</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>608</v>
       </c>
@@ -20429,7 +20666,7 @@
         <v>0.36260401826746302</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>609</v>
       </c>
@@ -20446,7 +20683,7 @@
         <v>0.36206421975528402</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>610</v>
       </c>
@@ -20463,7 +20700,7 @@
         <v>0.35041286872414901</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>611</v>
       </c>
@@ -20480,7 +20717,7 @@
         <v>0.350208354276769</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>612</v>
       </c>
@@ -20497,7 +20734,7 @@
         <v>0.34950715726964598</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>613</v>
       </c>
@@ -20514,7 +20751,7 @@
         <v>0.34921260160558298</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>614</v>
       </c>
@@ -20531,7 +20768,7 @@
         <v>0.34911895392922698</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>615</v>
       </c>
@@ -20548,7 +20785,7 @@
         <v>0.34872465425379101</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>616</v>
       </c>
@@ -20565,7 +20802,7 @@
         <v>0.33009030510397502</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>617</v>
       </c>
@@ -20582,7 +20819,7 @@
         <v>0.32987351720473301</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>618</v>
       </c>
@@ -20599,7 +20836,7 @@
         <v>0.32880732637293197</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>619</v>
       </c>
@@ -20616,7 +20853,7 @@
         <v>0.32855605002010502</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>620</v>
       </c>
@@ -20633,7 +20870,7 @@
         <v>0.32775793277516002</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>621</v>
       </c>
@@ -20650,7 +20887,7 @@
         <v>0.32750291891659</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>622</v>
       </c>
@@ -20667,7 +20904,7 @@
         <v>0.31562776991900199</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>623</v>
       </c>
@@ -20684,7 +20921,7 @@
         <v>0.314945603314568</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>624</v>
       </c>
@@ -20701,7 +20938,7 @@
         <v>0.31401984719669102</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>625</v>
       </c>
@@ -20718,7 +20955,7 @@
         <v>0.31387557983398401</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>626</v>
       </c>
@@ -20735,7 +20972,7 @@
         <v>0.31364261043772901</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>627</v>
       </c>
@@ -20752,7 +20989,7 @@
         <v>0.31291579302619399</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>628</v>
       </c>
@@ -20769,7 +21006,7 @@
         <v>0.31263306920668599</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>629</v>
       </c>
@@ -20786,7 +21023,7 @@
         <v>0.30667642570944298</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>630</v>
       </c>
@@ -20803,7 +21040,7 @@
         <v>0.30648528693704002</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>631</v>
       </c>
@@ -20820,7 +21057,7 @@
         <v>0.306321642707375</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>632</v>
       </c>
@@ -20837,7 +21074,7 @@
         <v>0.30626352826286701</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>633</v>
       </c>
@@ -20854,7 +21091,7 @@
         <v>0.306210488712086</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>634</v>
       </c>
@@ -20871,7 +21108,7 @@
         <v>0.30586289888269702</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>635</v>
       </c>
@@ -20888,7 +21125,7 @@
         <v>0.29284559003044502</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>636</v>
       </c>
@@ -20905,7 +21142,7 @@
         <v>0.29231360760857</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>637</v>
       </c>
@@ -20922,7 +21159,7 @@
         <v>0.29197247493968198</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>638</v>
       </c>
@@ -20939,7 +21176,7 @@
         <v>0.29168776927274798</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>639</v>
       </c>
@@ -20956,7 +21193,7 @@
         <v>0.28607623111500402</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>640</v>
       </c>
@@ -20973,7 +21210,7 @@
         <v>0.28575408935546798</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>641</v>
       </c>
@@ -20990,7 +21227,7 @@
         <v>0.28546999404009599</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>642</v>
       </c>
@@ -21007,7 +21244,7 @@
         <v>0.28533529304055599</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>643</v>
       </c>
@@ -21024,7 +21261,7 @@
         <v>0.28510077981387799</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>644</v>
       </c>
@@ -21041,7 +21278,7 @@
         <v>0.28499214980181498</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>645</v>
       </c>
@@ -21058,7 +21295,7 @@
         <v>0.284925714829388</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>646</v>
       </c>
@@ -21075,7 +21312,7 @@
         <v>0.28480989523494898</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>647</v>
       </c>
@@ -21092,7 +21329,7 @@
         <v>0.28463444070255001</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>648</v>
       </c>
@@ -21109,7 +21346,7 @@
         <v>0.28428534833122698</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>649</v>
       </c>
@@ -21126,7 +21363,7 @@
         <v>0.28420636345358402</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>650</v>
       </c>
@@ -21143,7 +21380,7 @@
         <v>0.283888332591337</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>651</v>
       </c>
@@ -21160,7 +21397,7 @@
         <v>0.283246915929457</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>652</v>
       </c>
@@ -21177,7 +21414,7 @@
         <v>0.28308361457375902</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>653</v>
       </c>
@@ -21194,7 +21431,7 @@
         <v>0.28273809096392399</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>654</v>
       </c>
@@ -21211,7 +21448,7 @@
         <v>0.281890522676355</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>655</v>
       </c>
@@ -21228,7 +21465,7 @@
         <v>0.28177040907915901</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>656</v>
       </c>
@@ -21245,7 +21482,7 @@
         <v>0.28170373714671398</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>657</v>
       </c>
@@ -21262,7 +21499,7 @@
         <v>0.28142709350585898</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>658</v>
       </c>
@@ -21279,7 +21516,7 @@
         <v>0.28090924790326199</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>659</v>
       </c>
@@ -21296,7 +21533,7 @@
         <v>0.28052605483111198</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>660</v>
       </c>
@@ -21313,7 +21550,7 @@
         <v>0.27473963120404399</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>661</v>
       </c>
@@ -21330,7 +21567,7 @@
         <v>0.27439673749138299</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>662</v>
       </c>
@@ -21347,7 +21584,7 @@
         <v>0.27426075295840902</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>663</v>
       </c>
@@ -21364,7 +21601,7 @@
         <v>0.27411781939338198</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>664</v>
       </c>
@@ -21381,7 +21618,7 @@
         <v>0.27401194314395599</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>665</v>
       </c>
@@ -21398,7 +21635,7 @@
         <v>0.27392289644129098</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>666</v>
       </c>
@@ -21415,7 +21652,7 @@
         <v>0.27364952356674999</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>667</v>
       </c>
@@ -21432,7 +21669,7 @@
         <v>0.271399658203125</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>668</v>
       </c>
@@ -21449,7 +21686,7 @@
         <v>0.27123615938074402</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>669</v>
       </c>
@@ -21466,7 +21703,7 @@
         <v>0.27108726232191999</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>670</v>
       </c>
@@ -21483,7 +21720,7 @@
         <v>0.271027720731847</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>671</v>
       </c>
@@ -21500,7 +21737,7 @@
         <v>0.27090558220358402</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>672</v>
       </c>
@@ -21517,7 +21754,7 @@
         <v>0.270906749052159</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>673</v>
       </c>
@@ -21534,7 +21771,7 @@
         <v>0.27085622271369397</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>674</v>
       </c>
@@ -21551,7 +21788,7 @@
         <v>0.27077256505629499</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>675</v>
       </c>
@@ -21568,7 +21805,7 @@
         <v>0.27065703627642401</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>676</v>
       </c>
@@ -21585,7 +21822,7 @@
         <v>0.26976307588464998</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>677</v>
       </c>
@@ -21602,7 +21839,7 @@
         <v>0.269677860035615</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>678</v>
       </c>
@@ -21619,7 +21856,7 @@
         <v>0.25321840892118502</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>679</v>
       </c>
@@ -21636,7 +21873,7 @@
         <v>0.25269520479090002</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>680</v>
       </c>
@@ -21653,7 +21890,7 @@
         <v>0.25213994284237101</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>681</v>
       </c>
@@ -21670,7 +21907,7 @@
         <v>0.25201131304572599</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>682</v>
       </c>
@@ -21687,7 +21924,7 @@
         <v>0.251419512580422</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>683</v>
       </c>
@@ -21704,7 +21941,7 @@
         <v>0.25115792308134099</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>684</v>
       </c>
@@ -21721,7 +21958,7 @@
         <v>0.25094202737247201</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>685</v>
       </c>
@@ -21738,7 +21975,7 @@
         <v>0.25088550522748099</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>686</v>
       </c>
@@ -21755,7 +21992,7 @@
         <v>0.25083230052274802</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>687</v>
       </c>
@@ -21772,7 +22009,7 @@
         <v>0.250802748736213</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>688</v>
       </c>
@@ -21789,7 +22026,7 @@
         <v>0.25071977682674601</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>689</v>
       </c>
@@ -21806,7 +22043,7 @@
         <v>0.250647715849034</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>690</v>
       </c>
@@ -21823,7 +22060,7 @@
         <v>0.25071290139590902</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>691</v>
       </c>
@@ -21840,7 +22077,7 @@
         <v>0.25067175651999002</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>692</v>
       </c>
@@ -21857,7 +22094,7 @@
         <v>0.231218861299402</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>693</v>
       </c>
@@ -21874,7 +22111,7 @@
         <v>0.23133283547794101</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>694</v>
       </c>
@@ -21891,7 +22128,7 @@
         <v>0.23091796875000001</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>695</v>
       </c>
@@ -21908,7 +22145,7 @@
         <v>0.230891030704273</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>696</v>
       </c>
@@ -21925,7 +22162,7 @@
         <v>0.230757557588465</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>528</v>
       </c>
@@ -21942,7 +22179,7 @@
         <v>0.23067544017118499</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>529</v>
       </c>
@@ -21959,7 +22196,7 @@
         <v>0.228183565027573</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>530</v>
       </c>
@@ -21976,7 +22213,7 @@
         <v>0.225738963407628</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>531</v>
       </c>
@@ -21993,7 +22230,7 @@
         <v>0.22291198012408001</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>532</v>
       </c>
@@ -22010,7 +22247,7 @@
         <v>0.21938392549402499</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>533</v>
       </c>
@@ -22027,7 +22264,7 @@
         <v>0.21058281034581799</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>534</v>
       </c>
@@ -22044,7 +22281,7 @@
         <v>0.200190239401424</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>535</v>
       </c>
@@ -22061,7 +22298,7 @@
         <v>0.190463630227481</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>536</v>
       </c>
@@ -22078,7 +22315,7 @@
         <v>0.18279285026999001</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>537</v>
       </c>
@@ -22095,7 +22332,7 @@
         <v>0.171118239458869</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>538</v>
       </c>
@@ -22112,7 +22349,7 @@
         <v>0.15038834874770199</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>539</v>
       </c>
@@ -22129,7 +22366,7 @@
         <v>0.13694921156939299</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>540</v>
       </c>
@@ -22146,7 +22383,7 @@
         <v>0.123146775189568</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>541</v>
       </c>
@@ -22163,7 +22400,7 @@
         <v>0.112879268870634</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>542</v>
       </c>
@@ -22180,7 +22417,7 @@
         <v>8.7559272317325298E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>543</v>
       </c>
@@ -22197,7 +22434,7 @@
         <v>6.1366257611443001E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>544</v>
       </c>
@@ -22214,7 +22451,7 @@
         <v>3.6090317670036703E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>189</v>
       </c>
